--- a/Amazon/data/SearchItems.xlsx
+++ b/Amazon/data/SearchItems.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shakir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\BugBusters\Amazon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Godiva dark chocolate</t>
+    <t>getTitle</t>
   </si>
   <si>
-    <t>Lacuna Coil</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
+    <t>search</t>
   </si>
 </sst>
 </file>
@@ -350,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,11 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
